--- a/Code/Results/Cases/Case_7_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_40/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.65737462608508</v>
+        <v>18.72501003996804</v>
       </c>
       <c r="C2">
-        <v>12.61585519890206</v>
+        <v>6.441079453248381</v>
       </c>
       <c r="D2">
-        <v>1.804244420029334</v>
+        <v>2.24430255518289</v>
       </c>
       <c r="E2">
-        <v>5.596282092856876</v>
+        <v>6.154642932571773</v>
       </c>
       <c r="F2">
-        <v>44.15487117397517</v>
+        <v>42.00108698463306</v>
       </c>
       <c r="G2">
-        <v>2.142587010075905</v>
+        <v>2.173729832267525</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.887322063288037</v>
+        <v>6.243851074424386</v>
       </c>
       <c r="K2">
-        <v>20.58322556235587</v>
+        <v>14.86849763204637</v>
       </c>
       <c r="L2">
-        <v>7.527133421215221</v>
+        <v>6.882686076048768</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.10342334942976</v>
+        <v>18.44476714647672</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.293603987835</v>
+        <v>17.89444535233694</v>
       </c>
       <c r="C3">
-        <v>11.70112336533285</v>
+        <v>5.995482472337852</v>
       </c>
       <c r="D3">
-        <v>1.844761420560659</v>
+        <v>2.235266315762143</v>
       </c>
       <c r="E3">
-        <v>5.617230170996219</v>
+        <v>6.141924135259051</v>
       </c>
       <c r="F3">
-        <v>43.00399782429586</v>
+        <v>41.3005139422235</v>
       </c>
       <c r="G3">
-        <v>2.154355872834624</v>
+        <v>2.182583613578977</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.935769321637001</v>
+        <v>6.278893815672094</v>
       </c>
       <c r="K3">
-        <v>19.50008723199784</v>
+        <v>14.24899787569244</v>
       </c>
       <c r="L3">
-        <v>7.390151414481351</v>
+        <v>6.7967505757672</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.28838654186311</v>
+        <v>18.55838831239637</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.43971213981529</v>
+        <v>17.37832198291834</v>
       </c>
       <c r="C4">
-        <v>11.11238265150059</v>
+        <v>5.707781047210386</v>
       </c>
       <c r="D4">
-        <v>1.871178149596631</v>
+        <v>2.229147249045177</v>
       </c>
       <c r="E4">
-        <v>5.631334536830492</v>
+        <v>6.136392054809489</v>
       </c>
       <c r="F4">
-        <v>42.32268522464969</v>
+        <v>40.89121131365167</v>
       </c>
       <c r="G4">
-        <v>2.16174374492837</v>
+        <v>2.188167968013204</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.966724300774384</v>
+        <v>6.301833782436759</v>
       </c>
       <c r="K4">
-        <v>18.8226906910373</v>
+        <v>13.86567868977122</v>
       </c>
       <c r="L4">
-        <v>7.309618043408631</v>
+        <v>6.747053866907457</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.40669703619917</v>
+        <v>18.6330335288258</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.0879265771347</v>
+        <v>17.16672991575691</v>
       </c>
       <c r="C5">
-        <v>10.86554602624411</v>
+        <v>5.586950578324521</v>
       </c>
       <c r="D5">
-        <v>1.882288209438745</v>
+        <v>2.226514079637667</v>
       </c>
       <c r="E5">
-        <v>5.637390974374612</v>
+        <v>6.134701233277573</v>
       </c>
       <c r="F5">
-        <v>42.05140973938039</v>
+        <v>40.72962525882057</v>
       </c>
       <c r="G5">
-        <v>2.164797984442215</v>
+        <v>2.190482420896837</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.979646396127102</v>
+        <v>6.311538176785469</v>
       </c>
       <c r="K5">
-        <v>18.54381386288351</v>
+        <v>13.70893976859075</v>
       </c>
       <c r="L5">
-        <v>7.277700532508693</v>
+        <v>6.727573095975835</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.45607559067768</v>
+        <v>18.66464858513643</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.02929386080787</v>
+        <v>17.13152760318901</v>
       </c>
       <c r="C6">
-        <v>10.82413815179763</v>
+        <v>5.56666874341813</v>
       </c>
       <c r="D6">
-        <v>1.884152778057097</v>
+        <v>2.226068527115684</v>
       </c>
       <c r="E6">
-        <v>5.638415195755859</v>
+        <v>6.134454244382629</v>
       </c>
       <c r="F6">
-        <v>42.00674905085332</v>
+        <v>40.70310740578272</v>
       </c>
       <c r="G6">
-        <v>2.16530785510469</v>
+        <v>2.190869119809165</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.981810794683199</v>
+        <v>6.31317104723659</v>
       </c>
       <c r="K6">
-        <v>18.49734479341361</v>
+        <v>13.68288774138501</v>
       </c>
       <c r="L6">
-        <v>7.272455092323869</v>
+        <v>6.724384865162469</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.46434459996163</v>
+        <v>18.66996965636351</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.43498278328696</v>
+        <v>17.37547311194791</v>
       </c>
       <c r="C7">
-        <v>11.10908187806208</v>
+        <v>5.706166075593109</v>
       </c>
       <c r="D7">
-        <v>1.871326636821149</v>
+        <v>2.229112297254879</v>
       </c>
       <c r="E7">
-        <v>5.631414970148247</v>
+        <v>6.136366982031221</v>
       </c>
       <c r="F7">
-        <v>42.3190009384214</v>
+        <v>40.88901107174291</v>
       </c>
       <c r="G7">
-        <v>2.161784755114714</v>
+        <v>2.188199022528547</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.966897321807482</v>
+        <v>6.301963219384145</v>
       </c>
       <c r="K7">
-        <v>18.81894071893421</v>
+        <v>13.86356672016904</v>
       </c>
       <c r="L7">
-        <v>7.309183944272616</v>
+        <v>6.74678802179443</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.40735828298362</v>
+        <v>18.6334550946815</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.19075441348274</v>
+        <v>18.44006372477409</v>
       </c>
       <c r="C8">
-        <v>12.30600954775748</v>
+        <v>6.290337551695332</v>
       </c>
       <c r="D8">
-        <v>1.817867490922764</v>
+        <v>2.241307688891585</v>
       </c>
       <c r="E8">
-        <v>5.603244898059421</v>
+        <v>6.149779341714303</v>
       </c>
       <c r="F8">
-        <v>43.75278745481393</v>
+        <v>41.75518179775302</v>
       </c>
       <c r="G8">
-        <v>2.146613196679506</v>
+        <v>2.176752837958443</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.903778317595465</v>
+        <v>6.255637201877158</v>
       </c>
       <c r="K8">
-        <v>20.21246382162302</v>
+        <v>14.65562096737615</v>
       </c>
       <c r="L8">
-        <v>7.47916109515101</v>
+        <v>6.8524187198701</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.16619705546912</v>
+        <v>18.48291110751344</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.49222466624629</v>
+        <v>20.46874088278416</v>
       </c>
       <c r="C9">
-        <v>14.44380645108846</v>
+        <v>7.326123736290874</v>
       </c>
       <c r="D9">
-        <v>1.953117324539616</v>
+        <v>2.260517890683098</v>
       </c>
       <c r="E9">
-        <v>5.558046009671557</v>
+        <v>6.194565641685831</v>
       </c>
       <c r="F9">
-        <v>46.76660933081385</v>
+        <v>43.62070191825994</v>
       </c>
       <c r="G9">
-        <v>2.117998079864623</v>
+        <v>2.155406891526679</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.789402816003114</v>
+        <v>6.176179243319833</v>
       </c>
       <c r="K9">
-        <v>22.83881523447728</v>
+        <v>16.17782860270854</v>
       </c>
       <c r="L9">
-        <v>7.840843140982363</v>
+        <v>7.083904149365949</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.73236134479435</v>
+        <v>18.22797133445006</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.82375410871679</v>
+        <v>21.91269010303776</v>
       </c>
       <c r="C10">
-        <v>15.8957161405042</v>
+        <v>8.023413440711122</v>
       </c>
       <c r="D10">
-        <v>2.105229535503231</v>
+        <v>2.271519700647175</v>
       </c>
       <c r="E10">
-        <v>5.531268121914476</v>
+        <v>6.239328016658612</v>
       </c>
       <c r="F10">
-        <v>49.10845318611029</v>
+        <v>45.09547385475841</v>
       </c>
       <c r="G10">
-        <v>2.097437741984636</v>
+        <v>2.140280995703297</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.710827090242386</v>
+        <v>6.124889040823199</v>
       </c>
       <c r="K10">
-        <v>24.69732216280682</v>
+        <v>17.26918972820026</v>
       </c>
       <c r="L10">
-        <v>8.124083476205598</v>
+        <v>7.268833981331663</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.43995840022763</v>
+        <v>18.0676245221162</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.86407424714649</v>
+        <v>22.55808694356055</v>
       </c>
       <c r="C11">
-        <v>16.53276802090565</v>
+        <v>8.327580670616204</v>
       </c>
       <c r="D11">
-        <v>2.17532456878053</v>
+        <v>2.275795253989626</v>
       </c>
       <c r="E11">
-        <v>5.520567471416154</v>
+        <v>6.262399791909917</v>
       </c>
       <c r="F11">
-        <v>50.20350228527363</v>
+        <v>45.78969121002179</v>
       </c>
       <c r="G11">
-        <v>2.088125783779703</v>
+        <v>2.133492872344565</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.67620032491045</v>
+        <v>6.103133299329967</v>
       </c>
       <c r="K11">
-        <v>25.52743183010917</v>
+        <v>17.75871236828301</v>
       </c>
       <c r="L11">
-        <v>8.256878802709943</v>
+        <v>7.356204825190798</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.31339267548166</v>
+        <v>18.00114920735744</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.25520916291584</v>
+        <v>22.80076962331808</v>
       </c>
       <c r="C12">
-        <v>16.77085707026738</v>
+        <v>8.440957962801345</v>
       </c>
       <c r="D12">
-        <v>2.20205106102436</v>
+        <v>2.27730486034295</v>
       </c>
       <c r="E12">
-        <v>5.516737071579068</v>
+        <v>6.271537552235321</v>
       </c>
       <c r="F12">
-        <v>50.62269971089918</v>
+        <v>46.05600245240634</v>
       </c>
       <c r="G12">
-        <v>2.08459979885831</v>
+        <v>2.130933157214254</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.663243001362939</v>
+        <v>6.095125474130472</v>
       </c>
       <c r="K12">
-        <v>25.84620047371771</v>
+        <v>17.94303060635013</v>
       </c>
       <c r="L12">
-        <v>8.307752296798682</v>
+        <v>7.389759066951745</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.26647191843601</v>
+        <v>17.97696604915647</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.17109369756987</v>
+        <v>22.7485804975717</v>
       </c>
       <c r="C13">
-        <v>16.71971654054407</v>
+        <v>8.416619195405289</v>
       </c>
       <c r="D13">
-        <v>2.196285935785964</v>
+        <v>2.276984681967693</v>
       </c>
       <c r="E13">
-        <v>5.517551999817002</v>
+        <v>6.269551549059603</v>
       </c>
       <c r="F13">
-        <v>50.53221176546967</v>
+        <v>45.99849381850572</v>
       </c>
       <c r="G13">
-        <v>2.085359269888413</v>
+        <v>2.131484000370506</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.666026790588612</v>
+        <v>6.096839778801107</v>
       </c>
       <c r="K13">
-        <v>25.77250757781523</v>
+        <v>17.90338178505041</v>
       </c>
       <c r="L13">
-        <v>8.296769285175271</v>
+        <v>7.382511654860336</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.27653092118225</v>
+        <v>17.98212928705408</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.89630858635969</v>
+        <v>22.57808721185051</v>
       </c>
       <c r="C14">
-        <v>16.55241748547875</v>
+        <v>8.336944024727114</v>
       </c>
       <c r="D14">
-        <v>2.177519363937929</v>
+        <v>2.275921670544599</v>
       </c>
       <c r="E14">
-        <v>5.520247843005928</v>
+        <v>6.26314345684542</v>
       </c>
       <c r="F14">
-        <v>50.23789743706719</v>
+        <v>45.81153164730531</v>
       </c>
       <c r="G14">
-        <v>2.087835728950293</v>
+        <v>2.133282081998353</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.675131244085923</v>
+        <v>6.102469844924724</v>
       </c>
       <c r="K14">
-        <v>25.55316065469409</v>
+        <v>17.77389766136577</v>
       </c>
       <c r="L14">
-        <v>8.261052295532824</v>
+        <v>7.358955938013597</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.30951178370893</v>
+        <v>17.99913944463063</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.72763323488165</v>
+        <v>22.47343047345734</v>
       </c>
       <c r="C15">
-        <v>16.44953898145766</v>
+        <v>8.287907902335006</v>
       </c>
       <c r="D15">
-        <v>2.166049886793768</v>
+        <v>2.275256153021993</v>
       </c>
       <c r="E15">
-        <v>5.521928284114627</v>
+        <v>6.259270885305767</v>
       </c>
       <c r="F15">
-        <v>50.05821983923453</v>
+        <v>45.69746057781936</v>
       </c>
       <c r="G15">
-        <v>2.089352483619404</v>
+        <v>2.134384785933202</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.680728005221291</v>
+        <v>6.105948578827384</v>
       </c>
       <c r="K15">
-        <v>25.41853241585411</v>
+        <v>17.69444659105178</v>
       </c>
       <c r="L15">
-        <v>8.239251737500313</v>
+        <v>7.344588530078572</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.32984727747549</v>
+        <v>18.00968942205617</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.75536549844273</v>
+        <v>21.87027465034071</v>
       </c>
       <c r="C16">
-        <v>15.85363002893893</v>
+        <v>8.003278968390442</v>
       </c>
       <c r="D16">
-        <v>2.100671135790006</v>
+        <v>2.27122521956002</v>
       </c>
       <c r="E16">
-        <v>5.531997946761225</v>
+        <v>6.237875696555728</v>
       </c>
       <c r="F16">
-        <v>49.03750684599588</v>
+        <v>45.05058024435173</v>
       </c>
       <c r="G16">
-        <v>2.09804666024442</v>
+        <v>2.14072627033349</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.713112050106012</v>
+        <v>6.126342874841082</v>
       </c>
       <c r="K16">
-        <v>24.64276995306947</v>
+        <v>17.23705318870054</v>
       </c>
       <c r="L16">
-        <v>8.115485873132421</v>
+        <v>7.263189533527702</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.4483659937866</v>
+        <v>18.07210391675367</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.15376089304772</v>
+        <v>21.49726238654141</v>
       </c>
       <c r="C17">
-        <v>15.48220627195886</v>
+        <v>7.825377993684233</v>
       </c>
       <c r="D17">
-        <v>2.060829015743349</v>
+        <v>2.26856237097225</v>
       </c>
       <c r="E17">
-        <v>5.538560391495551</v>
+        <v>6.225452227435952</v>
       </c>
       <c r="F17">
-        <v>48.41909860012277</v>
+        <v>44.65976074199034</v>
       </c>
       <c r="G17">
-        <v>2.103386978759475</v>
+        <v>2.14463858735253</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.733261014334936</v>
+        <v>6.139260507961573</v>
       </c>
       <c r="K17">
-        <v>24.16297852132803</v>
+        <v>16.95463040750789</v>
       </c>
       <c r="L17">
-        <v>8.04058169534634</v>
+        <v>7.214086022167053</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.52277708343607</v>
+        <v>18.11208987325779</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.80581110110788</v>
+        <v>21.28163816960824</v>
       </c>
       <c r="C18">
-        <v>15.26635308435408</v>
+        <v>7.721822753952634</v>
       </c>
       <c r="D18">
-        <v>2.037993723428416</v>
+        <v>2.266962414181002</v>
       </c>
       <c r="E18">
-        <v>5.542473703512138</v>
+        <v>6.218560856573598</v>
       </c>
       <c r="F18">
-        <v>48.06618525047725</v>
+        <v>44.43716290417144</v>
       </c>
       <c r="G18">
-        <v>2.106462831218399</v>
+        <v>2.146897741557604</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.744955734845501</v>
+        <v>6.146838507570961</v>
       </c>
       <c r="K18">
-        <v>23.88556237503251</v>
+        <v>16.79153619968097</v>
       </c>
       <c r="L18">
-        <v>7.997868797847825</v>
+        <v>7.186148225276108</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.56617785495865</v>
+        <v>18.13569350362435</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.68766911389147</v>
+        <v>21.20844913229267</v>
       </c>
       <c r="C19">
-        <v>15.19288135610181</v>
+        <v>7.686547221698767</v>
       </c>
       <c r="D19">
-        <v>2.030274474792533</v>
+        <v>2.266409093943343</v>
       </c>
       <c r="E19">
-        <v>5.543822273949726</v>
+        <v>6.216270892885194</v>
       </c>
       <c r="F19">
-        <v>47.94716589378922</v>
+        <v>44.36216963371729</v>
       </c>
       <c r="G19">
-        <v>2.1075051508169</v>
+        <v>2.147664252977654</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.748933662521602</v>
+        <v>6.149429616237171</v>
       </c>
       <c r="K19">
-        <v>23.79138293698063</v>
+        <v>16.73620546333259</v>
       </c>
       <c r="L19">
-        <v>7.983470044910118</v>
+        <v>7.176741359103868</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.58097374404687</v>
+        <v>18.14378745162096</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.2180012079994</v>
+        <v>21.53708229469727</v>
       </c>
       <c r="C20">
-        <v>15.52197322909709</v>
+        <v>7.844442804788203</v>
       </c>
       <c r="D20">
-        <v>2.065061549366912</v>
+        <v>2.268852943283905</v>
       </c>
       <c r="E20">
-        <v>5.537847387397886</v>
+        <v>6.226748329459779</v>
       </c>
       <c r="F20">
-        <v>48.48464009534637</v>
+        <v>44.70113692139226</v>
       </c>
       <c r="G20">
-        <v>2.10281809220299</v>
+        <v>2.144221211716651</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.731105236120924</v>
+        <v>6.137870047357944</v>
       </c>
       <c r="K20">
-        <v>24.21420307584707</v>
+        <v>16.98476277581514</v>
       </c>
       <c r="L20">
-        <v>8.048516967171375</v>
+        <v>7.219281573954239</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.51479311889785</v>
+        <v>18.1077702991518</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.97709466713597</v>
+        <v>22.62821211044531</v>
       </c>
       <c r="C21">
-        <v>16.60164082242478</v>
+        <v>8.360394930788088</v>
       </c>
       <c r="D21">
-        <v>2.183026118708936</v>
+        <v>2.276236910481975</v>
       </c>
       <c r="E21">
-        <v>5.519449913832747</v>
+        <v>6.265014691945474</v>
       </c>
       <c r="F21">
-        <v>50.32421939867241</v>
+        <v>45.86635331100972</v>
       </c>
       <c r="G21">
-        <v>2.087108374931091</v>
+        <v>2.132753670167506</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.672452883907103</v>
+        <v>6.10080986588358</v>
       </c>
       <c r="K21">
-        <v>25.61764457592593</v>
+        <v>17.81195916667986</v>
       </c>
       <c r="L21">
-        <v>8.27152712097368</v>
+        <v>7.36586207295296</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.29979646391125</v>
+        <v>17.99411578128555</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.11048554515078</v>
+        <v>23.33132786770638</v>
       </c>
       <c r="C22">
-        <v>17.28903789434304</v>
+        <v>8.68712023700696</v>
       </c>
       <c r="D22">
-        <v>2.261221547157462</v>
+        <v>2.280422564679546</v>
       </c>
       <c r="E22">
-        <v>5.508723622150637</v>
+        <v>6.292367029820617</v>
       </c>
       <c r="F22">
-        <v>51.55305832258242</v>
+        <v>46.64790992460583</v>
       </c>
       <c r="G22">
-        <v>2.076839428039655</v>
+        <v>2.125320556760894</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.63502113424618</v>
+        <v>6.077935206417007</v>
       </c>
       <c r="K22">
-        <v>26.62593949581911</v>
+        <v>18.34643545740225</v>
       </c>
       <c r="L22">
-        <v>8.420712832556223</v>
+        <v>7.464396000677582</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.16520194602633</v>
+        <v>17.92563704204018</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.50700530312195</v>
+        <v>22.95698889644511</v>
       </c>
       <c r="C23">
-        <v>16.9237481474216</v>
+        <v>8.513674815524205</v>
       </c>
       <c r="D23">
-        <v>2.2193663561689</v>
+        <v>2.278248729362912</v>
       </c>
       <c r="E23">
-        <v>5.514326400202889</v>
+        <v>6.277550219105593</v>
       </c>
       <c r="F23">
-        <v>50.89466528321523</v>
+        <v>46.22891723024093</v>
       </c>
       <c r="G23">
-        <v>2.082322392460334</v>
+        <v>2.129283017965022</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.654918719766242</v>
+        <v>6.090019228628338</v>
       </c>
       <c r="K23">
-        <v>26.07621613691484</v>
+        <v>18.0617481171908</v>
       </c>
       <c r="L23">
-        <v>8.340766594280389</v>
+        <v>7.411555065181514</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.23646546142687</v>
+        <v>17.96163305361157</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.18896464523554</v>
+        <v>21.51908336698927</v>
       </c>
       <c r="C24">
-        <v>15.50400182009321</v>
+        <v>7.835827588332403</v>
       </c>
       <c r="D24">
-        <v>2.063147805342716</v>
+        <v>2.26872179027117</v>
       </c>
       <c r="E24">
-        <v>5.538169299640018</v>
+        <v>6.226161580632214</v>
       </c>
       <c r="F24">
-        <v>48.45500064921616</v>
+        <v>44.6824242473661</v>
       </c>
       <c r="G24">
-        <v>2.103075267856352</v>
+        <v>2.144409876182875</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.732079517876577</v>
+        <v>6.13849820305963</v>
       </c>
       <c r="K24">
-        <v>24.19104937459497</v>
+        <v>16.97114218762051</v>
       </c>
       <c r="L24">
-        <v>8.044928340330911</v>
+        <v>7.216931754154341</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.51840074128864</v>
+        <v>18.10972126690667</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.61535914048778</v>
+        <v>19.92749218153579</v>
       </c>
       <c r="C25">
-        <v>13.88703760965723</v>
+        <v>7.057351348735033</v>
       </c>
       <c r="D25">
-        <v>1.897586053354052</v>
+        <v>2.255849648284434</v>
       </c>
       <c r="E25">
-        <v>5.56916961868499</v>
+        <v>6.180410899852822</v>
       </c>
       <c r="F25">
-        <v>45.92934731022785</v>
+        <v>43.09792406729363</v>
       </c>
       <c r="G25">
-        <v>2.125639724347965</v>
+        <v>2.16107493570699</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.819365405920297</v>
+        <v>6.196441814842714</v>
       </c>
       <c r="K25">
-        <v>22.14059801712952</v>
+        <v>15.77029964119826</v>
       </c>
       <c r="L25">
-        <v>7.739951700094437</v>
+        <v>7.018673717657325</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.84531339425136</v>
+        <v>18.29239590399418</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.72501003996804</v>
+        <v>14.58763127783995</v>
       </c>
       <c r="C2">
-        <v>6.441079453248381</v>
+        <v>6.329277423154936</v>
       </c>
       <c r="D2">
-        <v>2.24430255518289</v>
+        <v>4.433270928897561</v>
       </c>
       <c r="E2">
-        <v>6.154642932571773</v>
+        <v>7.014571714055741</v>
       </c>
       <c r="F2">
-        <v>42.00108698463306</v>
+        <v>27.70480264646509</v>
       </c>
       <c r="G2">
-        <v>2.173729832267525</v>
+        <v>34.92519478189763</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3.248056345334913</v>
       </c>
       <c r="J2">
-        <v>6.243851074424386</v>
+        <v>12.06578361186357</v>
       </c>
       <c r="K2">
-        <v>14.86849763204637</v>
+        <v>19.29771494669621</v>
       </c>
       <c r="L2">
-        <v>6.882686076048768</v>
+        <v>5.694480164508228</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.58639808424534</v>
       </c>
       <c r="N2">
-        <v>18.44476714647672</v>
+        <v>7.064275655240997</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>14.13843495979703</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.89444535233694</v>
+        <v>13.73589350790987</v>
       </c>
       <c r="C3">
-        <v>5.995482472337852</v>
+        <v>5.983950380355111</v>
       </c>
       <c r="D3">
-        <v>2.235266315762143</v>
+        <v>4.255574942134203</v>
       </c>
       <c r="E3">
-        <v>6.141924135259051</v>
+        <v>6.842913349083051</v>
       </c>
       <c r="F3">
-        <v>41.3005139422235</v>
+        <v>27.31320821593366</v>
       </c>
       <c r="G3">
-        <v>2.182583613578977</v>
+        <v>34.3570879031642</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.491027715810764</v>
       </c>
       <c r="J3">
-        <v>6.278893815672094</v>
+        <v>12.0450111435222</v>
       </c>
       <c r="K3">
-        <v>14.24899787569244</v>
+        <v>19.26144323931885</v>
       </c>
       <c r="L3">
-        <v>6.7967505757672</v>
+        <v>5.641315607710428</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.9421201221293</v>
       </c>
       <c r="N3">
-        <v>18.55838831239637</v>
+        <v>6.850163809230539</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>14.30569035738812</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.37832198291834</v>
+        <v>13.18831022221906</v>
       </c>
       <c r="C4">
-        <v>5.707781047210386</v>
+        <v>5.761701534300841</v>
       </c>
       <c r="D4">
-        <v>2.229147249045177</v>
+        <v>4.142963512207879</v>
       </c>
       <c r="E4">
-        <v>6.136392054809489</v>
+        <v>6.734842431681955</v>
       </c>
       <c r="F4">
-        <v>40.89121131365167</v>
+        <v>27.08260503030931</v>
       </c>
       <c r="G4">
-        <v>2.188167968013204</v>
+        <v>34.02360031249795</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.645431478006965</v>
       </c>
       <c r="J4">
-        <v>6.301833782436759</v>
+        <v>12.03697462702642</v>
       </c>
       <c r="K4">
-        <v>13.86567868977122</v>
+        <v>19.24719669144713</v>
       </c>
       <c r="L4">
-        <v>6.747053866907457</v>
+        <v>5.607723638485091</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.52954776065032</v>
       </c>
       <c r="N4">
-        <v>18.6330335288258</v>
+        <v>6.715350820172033</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>14.41058404606476</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.16672991575691</v>
+        <v>12.95913209564005</v>
       </c>
       <c r="C5">
-        <v>5.586950578324521</v>
+        <v>5.668591659980084</v>
       </c>
       <c r="D5">
-        <v>2.226514079637667</v>
+        <v>4.09624155626893</v>
       </c>
       <c r="E5">
-        <v>6.134701233277573</v>
+        <v>6.69015220111884</v>
       </c>
       <c r="F5">
-        <v>40.72962525882057</v>
+        <v>26.99113351555512</v>
       </c>
       <c r="G5">
-        <v>2.190482420896837</v>
+        <v>33.89159255016496</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.709685880967147</v>
       </c>
       <c r="J5">
-        <v>6.311538176785469</v>
+        <v>12.03485750608248</v>
       </c>
       <c r="K5">
-        <v>13.70893976859075</v>
+        <v>19.24335555537157</v>
       </c>
       <c r="L5">
-        <v>6.727573095975835</v>
+        <v>5.593793205619007</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.35730037484822</v>
       </c>
       <c r="N5">
-        <v>18.66464858513643</v>
+        <v>6.659623282845567</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>14.45389561075704</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.13152760318901</v>
+        <v>12.9207181246436</v>
       </c>
       <c r="C6">
-        <v>5.56666874341813</v>
+        <v>5.652978307737825</v>
       </c>
       <c r="D6">
-        <v>2.226068527115684</v>
+        <v>4.088434745010056</v>
       </c>
       <c r="E6">
-        <v>6.134454244382629</v>
+        <v>6.682692802077783</v>
       </c>
       <c r="F6">
-        <v>40.70310740578272</v>
+        <v>26.97609649346384</v>
       </c>
       <c r="G6">
-        <v>2.190869119809165</v>
+        <v>33.86990861498757</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.720436435459975</v>
       </c>
       <c r="J6">
-        <v>6.31317104723659</v>
+        <v>12.0345750520889</v>
       </c>
       <c r="K6">
-        <v>13.68288774138501</v>
+        <v>19.24283481799692</v>
       </c>
       <c r="L6">
-        <v>6.724384865162469</v>
+        <v>5.5914654052314</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.32845495007921</v>
       </c>
       <c r="N6">
-        <v>18.66996965636351</v>
+        <v>6.650323642344498</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>14.46112207444428</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.37547311194791</v>
+        <v>13.18524364219899</v>
       </c>
       <c r="C7">
-        <v>5.706166075593109</v>
+        <v>5.760456070219293</v>
       </c>
       <c r="D7">
-        <v>2.229112297254879</v>
+        <v>4.142336701521663</v>
       </c>
       <c r="E7">
-        <v>6.136366982031221</v>
+        <v>6.734242327492725</v>
       </c>
       <c r="F7">
-        <v>40.88901107174291</v>
+        <v>27.08136125426936</v>
       </c>
       <c r="G7">
-        <v>2.188199022528547</v>
+        <v>34.02180421499072</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.64629260774697</v>
       </c>
       <c r="J7">
-        <v>6.301963219384145</v>
+        <v>12.0369414246023</v>
       </c>
       <c r="K7">
-        <v>13.86356672016904</v>
+        <v>19.24713700531828</v>
       </c>
       <c r="L7">
-        <v>6.74678802179443</v>
+        <v>5.607536749028226</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.52724123583525</v>
       </c>
       <c r="N7">
-        <v>18.6334550946815</v>
+        <v>6.714602386866556</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>14.41116584919057</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.44006372477409</v>
+        <v>14.2991427403323</v>
       </c>
       <c r="C8">
-        <v>6.290337551695332</v>
+        <v>6.212342787315796</v>
       </c>
       <c r="D8">
-        <v>2.241307688891585</v>
+        <v>4.372756620650724</v>
       </c>
       <c r="E8">
-        <v>6.149779341714303</v>
+        <v>6.955950690117889</v>
       </c>
       <c r="F8">
-        <v>41.75518179775302</v>
+        <v>27.56775720576584</v>
       </c>
       <c r="G8">
-        <v>2.176752837958443</v>
+        <v>34.72615363362809</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.33076295220523</v>
       </c>
       <c r="J8">
-        <v>6.255637201877158</v>
+        <v>12.057624960807</v>
       </c>
       <c r="K8">
-        <v>14.65562096737615</v>
+        <v>19.28351099658449</v>
       </c>
       <c r="L8">
-        <v>6.8524187198701</v>
+        <v>5.676344140421344</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.367856188777</v>
       </c>
       <c r="N8">
-        <v>18.48291110751344</v>
+        <v>6.991174165012445</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>14.19565685348074</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.46874088278416</v>
+        <v>16.28308815746952</v>
       </c>
       <c r="C9">
-        <v>7.326123736290874</v>
+        <v>7.016666475485668</v>
       </c>
       <c r="D9">
-        <v>2.260517890683098</v>
+        <v>4.794944679041593</v>
       </c>
       <c r="E9">
-        <v>6.194565641685831</v>
+        <v>7.36869367167442</v>
       </c>
       <c r="F9">
-        <v>43.62070191825994</v>
+        <v>28.59821982436225</v>
       </c>
       <c r="G9">
-        <v>2.155406891526679</v>
+        <v>36.22707860402821</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.752402694916109</v>
       </c>
       <c r="J9">
-        <v>6.176179243319833</v>
+        <v>12.13689172224575</v>
       </c>
       <c r="K9">
-        <v>16.17782860270854</v>
+        <v>19.42088517105709</v>
       </c>
       <c r="L9">
-        <v>7.083904149365949</v>
+        <v>5.80388975980221</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.98422297934864</v>
       </c>
       <c r="N9">
-        <v>18.22797133445006</v>
+        <v>7.504945734859024</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>13.78983075082096</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.91269010303776</v>
+        <v>17.5657629952812</v>
       </c>
       <c r="C10">
-        <v>8.023413440711122</v>
+        <v>7.572163414863409</v>
       </c>
       <c r="D10">
-        <v>2.271519700647175</v>
+        <v>5.055017862361701</v>
       </c>
       <c r="E10">
-        <v>6.239328016658612</v>
+        <v>7.579193751128161</v>
       </c>
       <c r="F10">
-        <v>45.09547385475841</v>
+        <v>29.24849628152067</v>
       </c>
       <c r="G10">
-        <v>2.140280995703297</v>
+        <v>37.18397835382054</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.379734001420239</v>
       </c>
       <c r="J10">
-        <v>6.124889040823199</v>
+        <v>12.17991470245774</v>
       </c>
       <c r="K10">
-        <v>17.26918972820026</v>
+        <v>19.48261867735967</v>
       </c>
       <c r="L10">
-        <v>7.268833981331663</v>
+        <v>5.868540944095419</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.10778660337979</v>
       </c>
       <c r="N10">
-        <v>18.0676245221162</v>
+        <v>7.786422495725014</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>13.4875414034089</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.55808694356055</v>
+        <v>17.7097900395543</v>
       </c>
       <c r="C11">
-        <v>8.327580670616204</v>
+        <v>7.94278118721363</v>
       </c>
       <c r="D11">
-        <v>2.275795253989626</v>
+        <v>4.911262370411444</v>
       </c>
       <c r="E11">
-        <v>6.262399791909917</v>
+        <v>7.045539825647941</v>
       </c>
       <c r="F11">
-        <v>45.78969121002179</v>
+        <v>28.240792613341</v>
       </c>
       <c r="G11">
-        <v>2.133492872344565</v>
+        <v>35.76366791721887</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.17736412276994</v>
       </c>
       <c r="J11">
-        <v>6.103133299329967</v>
+        <v>11.85273173415842</v>
       </c>
       <c r="K11">
-        <v>17.75871236828301</v>
+        <v>18.80523841141467</v>
       </c>
       <c r="L11">
-        <v>7.356204825190798</v>
+        <v>5.722640695452613</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.37026318788478</v>
       </c>
       <c r="N11">
-        <v>18.00114920735744</v>
+        <v>7.266241918637768</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>13.24881197371043</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.80076962331808</v>
+        <v>17.56268624649383</v>
       </c>
       <c r="C12">
-        <v>8.440957962801345</v>
+        <v>8.144311909159487</v>
       </c>
       <c r="D12">
-        <v>2.27730486034295</v>
+        <v>4.733960635995496</v>
       </c>
       <c r="E12">
-        <v>6.271537552235321</v>
+        <v>6.625813480145644</v>
       </c>
       <c r="F12">
-        <v>46.05600245240634</v>
+        <v>27.23368780014706</v>
       </c>
       <c r="G12">
-        <v>2.130933157214254</v>
+        <v>34.3322563046511</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.439746963128901</v>
       </c>
       <c r="J12">
-        <v>6.095125474130472</v>
+        <v>11.56223662300133</v>
       </c>
       <c r="K12">
-        <v>17.94303060635013</v>
+        <v>18.21538208699461</v>
       </c>
       <c r="L12">
-        <v>7.389759066951745</v>
+        <v>5.641773942358798</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.36220117975694</v>
       </c>
       <c r="N12">
-        <v>17.97696604915647</v>
+        <v>6.783520614899921</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>13.12749997186381</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.7485804975717</v>
+        <v>17.17787486429831</v>
       </c>
       <c r="C13">
-        <v>8.416619195405289</v>
+        <v>8.233338747236866</v>
       </c>
       <c r="D13">
-        <v>2.276984681967693</v>
+        <v>4.516478256163314</v>
       </c>
       <c r="E13">
-        <v>6.269551549059603</v>
+        <v>6.278617764261604</v>
       </c>
       <c r="F13">
-        <v>45.99849381850572</v>
+        <v>26.15549284569901</v>
       </c>
       <c r="G13">
-        <v>2.131484000370506</v>
+        <v>32.78544999935926</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.80852221649888</v>
       </c>
       <c r="J13">
-        <v>6.096839778801107</v>
+        <v>11.28173548389555</v>
       </c>
       <c r="K13">
-        <v>17.90338178505041</v>
+        <v>17.65712305146644</v>
       </c>
       <c r="L13">
-        <v>7.382511654860336</v>
+        <v>5.60629802915414</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.14541087648046</v>
       </c>
       <c r="N13">
-        <v>17.98212928705408</v>
+        <v>6.299053319934561</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>13.08781518424045</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.57808721185051</v>
+        <v>16.79538102327885</v>
       </c>
       <c r="C14">
-        <v>8.336944024727114</v>
+        <v>8.246148437863063</v>
       </c>
       <c r="D14">
-        <v>2.275921670544599</v>
+        <v>4.344399450997875</v>
       </c>
       <c r="E14">
-        <v>6.26314345684542</v>
+        <v>6.088662953384524</v>
       </c>
       <c r="F14">
-        <v>45.81153164730531</v>
+        <v>25.36839820366119</v>
       </c>
       <c r="G14">
-        <v>2.133282081998353</v>
+        <v>31.64781308174251</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.796246549768332</v>
       </c>
       <c r="J14">
-        <v>6.102469844924724</v>
+        <v>11.09124822684122</v>
       </c>
       <c r="K14">
-        <v>17.77389766136577</v>
+        <v>17.28470686480063</v>
       </c>
       <c r="L14">
-        <v>7.358955938013597</v>
+        <v>5.60942212957645</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.89625993569084</v>
       </c>
       <c r="N14">
-        <v>17.99913944463063</v>
+        <v>5.964814862723887</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>13.09844883712808</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.47343047345734</v>
+        <v>16.65050634570579</v>
       </c>
       <c r="C15">
-        <v>8.287907902335006</v>
+        <v>8.225070885079653</v>
       </c>
       <c r="D15">
-        <v>2.275256153021993</v>
+        <v>4.293797123118117</v>
       </c>
       <c r="E15">
-        <v>6.259270885305767</v>
+        <v>6.047619435286345</v>
       </c>
       <c r="F15">
-        <v>45.69746057781936</v>
+        <v>25.16456525415354</v>
       </c>
       <c r="G15">
-        <v>2.134384785933202</v>
+        <v>31.3503668401795</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.029536157695383</v>
       </c>
       <c r="J15">
-        <v>6.105948578827384</v>
+        <v>11.04804321080018</v>
       </c>
       <c r="K15">
-        <v>17.69444659105178</v>
+        <v>17.20229063320494</v>
       </c>
       <c r="L15">
-        <v>7.344588530078572</v>
+        <v>5.612022796454847</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.78988082265637</v>
       </c>
       <c r="N15">
-        <v>18.00968942205617</v>
+        <v>5.881238737929956</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>13.11589737812847</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.87027465034071</v>
+        <v>16.17184945957859</v>
       </c>
       <c r="C16">
-        <v>8.003278968390442</v>
+        <v>7.985709625059512</v>
       </c>
       <c r="D16">
-        <v>2.27122521956002</v>
+        <v>4.218573014882981</v>
       </c>
       <c r="E16">
-        <v>6.237875696555728</v>
+        <v>6.018711152576101</v>
       </c>
       <c r="F16">
-        <v>45.05058024435173</v>
+        <v>25.08233477683358</v>
       </c>
       <c r="G16">
-        <v>2.14072627033349</v>
+        <v>31.2105479289342</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.86136123278281</v>
       </c>
       <c r="J16">
-        <v>6.126342874841082</v>
+        <v>11.08496386386062</v>
       </c>
       <c r="K16">
-        <v>17.23705318870054</v>
+        <v>17.28834674315141</v>
       </c>
       <c r="L16">
-        <v>7.263189533527702</v>
+        <v>5.587714266857217</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.35758883843769</v>
       </c>
       <c r="N16">
-        <v>18.07210391675367</v>
+        <v>5.847106427095993</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>13.24766408108509</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.49726238654141</v>
+        <v>16.01177132896289</v>
       </c>
       <c r="C17">
-        <v>7.825377993684233</v>
+        <v>7.790921548356248</v>
       </c>
       <c r="D17">
-        <v>2.26856237097225</v>
+        <v>4.254649751291423</v>
       </c>
       <c r="E17">
-        <v>6.225452227435952</v>
+        <v>6.087435072014918</v>
       </c>
       <c r="F17">
-        <v>44.65976074199034</v>
+        <v>25.44384175272617</v>
       </c>
       <c r="G17">
-        <v>2.14463858735253</v>
+        <v>31.72020478082979</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.183890111513032</v>
       </c>
       <c r="J17">
-        <v>6.139260507961573</v>
+        <v>11.21493850884302</v>
       </c>
       <c r="K17">
-        <v>16.95463040750789</v>
+        <v>17.55162177784475</v>
       </c>
       <c r="L17">
-        <v>7.214086022167053</v>
+        <v>5.562830823181475</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.15819404528304</v>
       </c>
       <c r="N17">
-        <v>18.11208987325779</v>
+        <v>5.997098676372441</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>13.34329883489803</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.28163816960824</v>
+        <v>16.11231854573156</v>
       </c>
       <c r="C18">
-        <v>7.721822753952634</v>
+        <v>7.615666212085046</v>
       </c>
       <c r="D18">
-        <v>2.266962414181002</v>
+        <v>4.39155960231574</v>
       </c>
       <c r="E18">
-        <v>6.218560856573598</v>
+        <v>6.305265228317339</v>
       </c>
       <c r="F18">
-        <v>44.43716290417144</v>
+        <v>26.2238775552839</v>
       </c>
       <c r="G18">
-        <v>2.146897741557604</v>
+        <v>32.83765620289073</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.035017337655193</v>
       </c>
       <c r="J18">
-        <v>6.146838507570961</v>
+        <v>11.43863911383716</v>
       </c>
       <c r="K18">
-        <v>16.79153619968097</v>
+        <v>17.99886998182168</v>
       </c>
       <c r="L18">
-        <v>7.186148225276108</v>
+        <v>5.563830276647161</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.1433991560978</v>
       </c>
       <c r="N18">
-        <v>18.13569350362435</v>
+        <v>6.341035888338217</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>13.42714192412267</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.20844913229267</v>
+        <v>16.41070098202479</v>
       </c>
       <c r="C19">
-        <v>7.686547221698767</v>
+        <v>7.47242358053523</v>
       </c>
       <c r="D19">
-        <v>2.266409093943343</v>
+        <v>4.598657256598611</v>
       </c>
       <c r="E19">
-        <v>6.216270892885194</v>
+        <v>6.701126687007769</v>
       </c>
       <c r="F19">
-        <v>44.36216963371729</v>
+        <v>27.28226763705762</v>
       </c>
       <c r="G19">
-        <v>2.147664252977654</v>
+        <v>34.35629250787585</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.730039103066983</v>
       </c>
       <c r="J19">
-        <v>6.149429616237171</v>
+        <v>11.7225553729251</v>
       </c>
       <c r="K19">
-        <v>16.73620546333259</v>
+        <v>18.56868426643083</v>
       </c>
       <c r="L19">
-        <v>7.176741359103868</v>
+        <v>5.627930917466569</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.27875590471438</v>
       </c>
       <c r="N19">
-        <v>18.14378745162096</v>
+        <v>6.836983017307404</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>13.50690031040181</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53708229469727</v>
+        <v>17.23512051731775</v>
       </c>
       <c r="C20">
-        <v>7.844442804788203</v>
+        <v>7.430508473729127</v>
       </c>
       <c r="D20">
-        <v>2.268852943283905</v>
+        <v>4.986638379843538</v>
       </c>
       <c r="E20">
-        <v>6.226748329459779</v>
+        <v>7.521095655635356</v>
       </c>
       <c r="F20">
-        <v>44.70113692139226</v>
+        <v>29.06788139521218</v>
       </c>
       <c r="G20">
-        <v>2.144221211716651</v>
+        <v>36.9180491129621</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.475869329296283</v>
       </c>
       <c r="J20">
-        <v>6.137870047357944</v>
+        <v>12.16508510181944</v>
       </c>
       <c r="K20">
-        <v>16.98476277581514</v>
+        <v>19.45975664187986</v>
       </c>
       <c r="L20">
-        <v>7.219281573954239</v>
+        <v>5.85065126136911</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.81998924648226</v>
       </c>
       <c r="N20">
-        <v>18.1077702991518</v>
+        <v>7.710185278898889</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>13.56567678636221</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.62821211044531</v>
+        <v>18.25289870867736</v>
       </c>
       <c r="C21">
-        <v>8.360394930788088</v>
+        <v>7.81756243568412</v>
       </c>
       <c r="D21">
-        <v>2.276236910481975</v>
+        <v>5.225982372625515</v>
       </c>
       <c r="E21">
-        <v>6.265014691945474</v>
+        <v>7.799621741322015</v>
       </c>
       <c r="F21">
-        <v>45.86635331100972</v>
+        <v>29.81505560334598</v>
       </c>
       <c r="G21">
-        <v>2.132753670167506</v>
+        <v>38.0081830093862</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.153223730854296</v>
       </c>
       <c r="J21">
-        <v>6.10080986588358</v>
+        <v>12.26935884073194</v>
       </c>
       <c r="K21">
-        <v>17.81195916667986</v>
+        <v>19.64978852510468</v>
       </c>
       <c r="L21">
-        <v>7.36586207295296</v>
+        <v>5.937436216671437</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.68222729789902</v>
       </c>
       <c r="N21">
-        <v>17.99411578128555</v>
+        <v>8.037726405649408</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>13.35720685480305</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.33132786770638</v>
+        <v>18.86955991455228</v>
       </c>
       <c r="C22">
-        <v>8.68712023700696</v>
+        <v>8.069154519972836</v>
       </c>
       <c r="D22">
-        <v>2.280422564679546</v>
+        <v>5.362896945987633</v>
       </c>
       <c r="E22">
-        <v>6.292367029820617</v>
+        <v>7.938574769820357</v>
       </c>
       <c r="F22">
-        <v>46.64790992460583</v>
+        <v>30.23327609665112</v>
       </c>
       <c r="G22">
-        <v>2.125320556760894</v>
+        <v>38.62177054879138</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.959971573954199</v>
       </c>
       <c r="J22">
-        <v>6.077935206417007</v>
+        <v>12.32193566863508</v>
       </c>
       <c r="K22">
-        <v>18.34643545740225</v>
+        <v>19.74063813349223</v>
       </c>
       <c r="L22">
-        <v>7.464396000677582</v>
+        <v>5.98073114628665</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.20938039359866</v>
       </c>
       <c r="N22">
-        <v>17.92563704204018</v>
+        <v>8.208488680629202</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>13.21545393031652</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.95698889644511</v>
+        <v>18.54261600682051</v>
       </c>
       <c r="C23">
-        <v>8.513674815524205</v>
+        <v>7.935703317764915</v>
       </c>
       <c r="D23">
-        <v>2.278248729362912</v>
+        <v>5.29020085310604</v>
       </c>
       <c r="E23">
-        <v>6.277550219105593</v>
+        <v>7.864671415670625</v>
       </c>
       <c r="F23">
-        <v>46.22891723024093</v>
+        <v>30.00939398478709</v>
       </c>
       <c r="G23">
-        <v>2.129283017965022</v>
+        <v>38.29322813077313</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.062781719893009</v>
       </c>
       <c r="J23">
-        <v>6.090019228628338</v>
+        <v>12.29339673966499</v>
       </c>
       <c r="K23">
-        <v>18.0617481171908</v>
+        <v>19.69132277648196</v>
       </c>
       <c r="L23">
-        <v>7.411555065181514</v>
+        <v>5.957686870910786</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.93011385999216</v>
       </c>
       <c r="N23">
-        <v>17.96163305361157</v>
+        <v>8.117734986474909</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>13.29098973545473</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51908336698927</v>
+        <v>17.25658887143831</v>
       </c>
       <c r="C24">
-        <v>7.835827588332403</v>
+        <v>7.41202405116779</v>
       </c>
       <c r="D24">
-        <v>2.26872179027117</v>
+        <v>5.00668081464749</v>
       </c>
       <c r="E24">
-        <v>6.226161580632214</v>
+        <v>7.579143108264426</v>
       </c>
       <c r="F24">
-        <v>44.6824242473661</v>
+        <v>29.17643097522136</v>
       </c>
       <c r="G24">
-        <v>2.144409876182875</v>
+        <v>37.07253482626028</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.459627342429181</v>
       </c>
       <c r="J24">
-        <v>6.13849820305963</v>
+        <v>12.19563110347853</v>
       </c>
       <c r="K24">
-        <v>16.97114218762051</v>
+        <v>19.52240384806547</v>
       </c>
       <c r="L24">
-        <v>7.216931754154341</v>
+        <v>5.868998222970688</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.82640323735241</v>
       </c>
       <c r="N24">
-        <v>18.10972126690667</v>
+        <v>7.765702838894523</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>13.57982233329017</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.92749218153579</v>
+        <v>15.76842939609152</v>
       </c>
       <c r="C25">
-        <v>7.057351348735033</v>
+        <v>6.807909946082527</v>
       </c>
       <c r="D25">
-        <v>2.255849648284434</v>
+        <v>4.684141078441997</v>
       </c>
       <c r="E25">
-        <v>6.180410899852822</v>
+        <v>7.259498746352097</v>
       </c>
       <c r="F25">
-        <v>43.09792406729363</v>
+        <v>28.31145125358558</v>
       </c>
       <c r="G25">
-        <v>2.16107493570699</v>
+        <v>35.80851203555543</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.90468879550993</v>
       </c>
       <c r="J25">
-        <v>6.196441814842714</v>
+        <v>12.11112394139912</v>
       </c>
       <c r="K25">
-        <v>15.77029964119826</v>
+        <v>19.37631556958546</v>
       </c>
       <c r="L25">
-        <v>7.018673717657325</v>
+        <v>5.77015446284316</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.53613153827805</v>
       </c>
       <c r="N25">
-        <v>18.29239590399418</v>
+        <v>7.369279760757111</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.89791703577317</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.58763127783995</v>
+        <v>14.02103650778485</v>
       </c>
       <c r="C2">
-        <v>6.329277423154936</v>
+        <v>6.546862199224032</v>
       </c>
       <c r="D2">
-        <v>4.433270928897561</v>
+        <v>4.613147406192209</v>
       </c>
       <c r="E2">
-        <v>7.014571714055741</v>
+        <v>6.97442486176239</v>
       </c>
       <c r="F2">
-        <v>27.70480264646509</v>
+        <v>26.48989668394052</v>
       </c>
       <c r="G2">
-        <v>34.92519478189763</v>
+        <v>32.73266146940622</v>
       </c>
       <c r="H2">
-        <v>3.248056345334913</v>
+        <v>3.05793528905884</v>
       </c>
       <c r="J2">
-        <v>12.06578361186357</v>
+        <v>11.70497797481973</v>
       </c>
       <c r="K2">
-        <v>19.29771494669621</v>
+        <v>18.16547721880568</v>
       </c>
       <c r="L2">
-        <v>5.694480164508228</v>
+        <v>14.42413407931686</v>
       </c>
       <c r="M2">
-        <v>11.58639808424534</v>
+        <v>12.48634111914029</v>
       </c>
       <c r="N2">
-        <v>7.064275655240997</v>
+        <v>5.613472343411695</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.46859025690276</v>
       </c>
       <c r="P2">
-        <v>14.13843495979703</v>
+        <v>7.329384912346239</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.79756583518821</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.73589350790987</v>
+        <v>13.20257448741043</v>
       </c>
       <c r="C3">
-        <v>5.983950380355111</v>
+        <v>6.110977239521883</v>
       </c>
       <c r="D3">
-        <v>4.255574942134203</v>
+        <v>4.429898640531362</v>
       </c>
       <c r="E3">
-        <v>6.842913349083051</v>
+        <v>6.818241385221096</v>
       </c>
       <c r="F3">
-        <v>27.31320821593366</v>
+        <v>26.1673009534519</v>
       </c>
       <c r="G3">
-        <v>34.3570879031642</v>
+        <v>32.35024694573915</v>
       </c>
       <c r="H3">
-        <v>3.491027715810764</v>
+        <v>3.278416696767381</v>
       </c>
       <c r="J3">
-        <v>12.0450111435222</v>
+        <v>11.65651855493496</v>
       </c>
       <c r="K3">
-        <v>19.26144323931885</v>
+        <v>18.1730836919117</v>
       </c>
       <c r="L3">
-        <v>5.641315607710428</v>
+        <v>14.5074105871477</v>
       </c>
       <c r="M3">
-        <v>10.9421201221293</v>
+        <v>12.43922794332086</v>
       </c>
       <c r="N3">
-        <v>6.850163809230539</v>
+        <v>5.566762890852643</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.81888031589666</v>
       </c>
       <c r="P3">
-        <v>14.30569035738812</v>
+        <v>7.115189968462587</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.95913768502161</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.18831022221906</v>
+        <v>12.67431352161839</v>
       </c>
       <c r="C4">
-        <v>5.761701534300841</v>
+        <v>5.829048129690347</v>
       </c>
       <c r="D4">
-        <v>4.142963512207879</v>
+        <v>4.314098638948463</v>
       </c>
       <c r="E4">
-        <v>6.734842431681955</v>
+        <v>6.719974525034883</v>
       </c>
       <c r="F4">
-        <v>27.08260503030931</v>
+        <v>25.9773693861986</v>
       </c>
       <c r="G4">
-        <v>34.02360031249795</v>
+        <v>32.13297367213726</v>
       </c>
       <c r="H4">
-        <v>3.645431478006965</v>
+        <v>3.418634121954439</v>
       </c>
       <c r="J4">
-        <v>12.03697462702642</v>
+        <v>11.62878622905331</v>
       </c>
       <c r="K4">
-        <v>19.24719669144713</v>
+        <v>18.18388197387282</v>
       </c>
       <c r="L4">
-        <v>5.607723638485091</v>
+        <v>14.55964374093352</v>
       </c>
       <c r="M4">
-        <v>10.52954776065032</v>
+        <v>12.43102343491654</v>
       </c>
       <c r="N4">
-        <v>6.715350820172033</v>
+        <v>5.537165930929507</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.40579787791919</v>
       </c>
       <c r="P4">
-        <v>14.41058404606476</v>
+        <v>6.980812708899885</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>14.06042621408663</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.95913209564005</v>
+        <v>12.45268082429468</v>
       </c>
       <c r="C5">
-        <v>5.668591659980084</v>
+        <v>5.71058128933898</v>
       </c>
       <c r="D5">
-        <v>4.09624155626893</v>
+        <v>4.266142876735369</v>
       </c>
       <c r="E5">
-        <v>6.69015220111884</v>
+        <v>6.679353419217778</v>
       </c>
       <c r="F5">
-        <v>26.99113351555512</v>
+        <v>25.90202415745066</v>
       </c>
       <c r="G5">
-        <v>33.89159255016496</v>
+        <v>32.04877253798886</v>
       </c>
       <c r="H5">
-        <v>3.709685880967147</v>
+        <v>3.477008856326135</v>
       </c>
       <c r="J5">
-        <v>12.03485750608248</v>
+        <v>11.6179856792339</v>
       </c>
       <c r="K5">
-        <v>19.24335555537157</v>
+        <v>18.18977652319722</v>
       </c>
       <c r="L5">
-        <v>5.593793205619007</v>
+        <v>14.58120616510321</v>
       </c>
       <c r="M5">
-        <v>10.35730037484822</v>
+        <v>12.43283913244382</v>
       </c>
       <c r="N5">
-        <v>6.659623282845567</v>
+        <v>5.524871334448819</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.23304760439103</v>
       </c>
       <c r="P5">
-        <v>14.45389561075704</v>
+        <v>6.925392022786466</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>14.10223996336302</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.9207181246436</v>
+        <v>12.41549827650782</v>
       </c>
       <c r="C6">
-        <v>5.652978307737825</v>
+        <v>5.690694489150873</v>
       </c>
       <c r="D6">
-        <v>4.088434745010056</v>
+        <v>4.258135459766748</v>
       </c>
       <c r="E6">
-        <v>6.682692802077783</v>
+        <v>6.672574086278024</v>
       </c>
       <c r="F6">
-        <v>26.97609649346384</v>
+        <v>25.88963724111337</v>
       </c>
       <c r="G6">
-        <v>33.86990861498757</v>
+        <v>32.03505086940488</v>
       </c>
       <c r="H6">
-        <v>3.720436435459975</v>
+        <v>3.486777034488217</v>
       </c>
       <c r="J6">
-        <v>12.0345750520889</v>
+        <v>11.61622225851083</v>
       </c>
       <c r="K6">
-        <v>19.24283481799692</v>
+        <v>18.19084419942497</v>
       </c>
       <c r="L6">
-        <v>5.5914654052314</v>
+        <v>14.58480332459804</v>
       </c>
       <c r="M6">
-        <v>10.32845495007921</v>
+        <v>12.43345028067984</v>
       </c>
       <c r="N6">
-        <v>6.650323642344498</v>
+        <v>5.522815633347687</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.20410031021057</v>
       </c>
       <c r="P6">
-        <v>14.46112207444428</v>
+        <v>6.916151343269726</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>14.10921599225284</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.18524364219899</v>
+        <v>12.66703227246006</v>
       </c>
       <c r="C7">
-        <v>5.760456070219293</v>
+        <v>5.818067970691128</v>
       </c>
       <c r="D7">
-        <v>4.142336701521663</v>
+        <v>4.318145916811924</v>
       </c>
       <c r="E7">
-        <v>6.734242327492725</v>
+        <v>6.720940639457165</v>
       </c>
       <c r="F7">
-        <v>27.08136125426936</v>
+        <v>25.9597178276132</v>
       </c>
       <c r="G7">
-        <v>34.02180421499072</v>
+        <v>32.19782857569684</v>
       </c>
       <c r="H7">
-        <v>3.64629260774697</v>
+        <v>3.420167891697284</v>
       </c>
       <c r="J7">
-        <v>12.0369414246023</v>
+        <v>11.58759555322249</v>
       </c>
       <c r="K7">
-        <v>19.24713700531828</v>
+        <v>18.17511648443044</v>
       </c>
       <c r="L7">
-        <v>5.607536749028226</v>
+        <v>14.55189427077211</v>
       </c>
       <c r="M7">
-        <v>10.52724123583525</v>
+        <v>12.42565811679242</v>
       </c>
       <c r="N7">
-        <v>6.714602386866556</v>
+        <v>5.536698856726787</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.3972254311666</v>
       </c>
       <c r="P7">
-        <v>14.41116584919057</v>
+        <v>6.979300912477236</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.05938938009667</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.2991427403323</v>
+        <v>13.73085539264528</v>
       </c>
       <c r="C8">
-        <v>6.212342787315796</v>
+        <v>6.370536312015871</v>
       </c>
       <c r="D8">
-        <v>4.372756620650724</v>
+        <v>4.56561034067682</v>
       </c>
       <c r="E8">
-        <v>6.955950690117889</v>
+        <v>6.926050077516785</v>
       </c>
       <c r="F8">
-        <v>27.56775720576584</v>
+        <v>26.32288274651582</v>
       </c>
       <c r="G8">
-        <v>34.72615363362809</v>
+        <v>32.81418086842598</v>
       </c>
       <c r="H8">
-        <v>3.33076295220523</v>
+        <v>3.135289473504978</v>
       </c>
       <c r="J8">
-        <v>12.057624960807</v>
+        <v>11.55386764313136</v>
       </c>
       <c r="K8">
-        <v>19.28351099658449</v>
+        <v>18.13783495754695</v>
       </c>
       <c r="L8">
-        <v>5.676344140421344</v>
+        <v>14.42783584194003</v>
       </c>
       <c r="M8">
-        <v>11.367856188777</v>
+        <v>12.44640546909808</v>
       </c>
       <c r="N8">
-        <v>6.991174165012445</v>
+        <v>5.596624245409919</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.22474117106058</v>
       </c>
       <c r="P8">
-        <v>14.19565685348074</v>
+        <v>7.253720059568233</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.84794943298478</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.28308815746952</v>
+        <v>15.62542014284002</v>
       </c>
       <c r="C9">
-        <v>7.016666475485668</v>
+        <v>7.37479425609621</v>
       </c>
       <c r="D9">
-        <v>4.794944679041593</v>
+        <v>5.005170267303403</v>
       </c>
       <c r="E9">
-        <v>7.36869367167442</v>
+        <v>7.303101729665226</v>
       </c>
       <c r="F9">
-        <v>28.59821982436225</v>
+        <v>27.16044628172002</v>
       </c>
       <c r="G9">
-        <v>36.22707860402821</v>
+        <v>33.91989028706481</v>
       </c>
       <c r="H9">
-        <v>2.752402694916109</v>
+        <v>2.611498334433642</v>
       </c>
       <c r="J9">
-        <v>12.13689172224575</v>
+        <v>11.651941676821</v>
       </c>
       <c r="K9">
-        <v>19.42088517105709</v>
+        <v>18.14772233962711</v>
       </c>
       <c r="L9">
-        <v>5.80388975980221</v>
+        <v>14.22264776724207</v>
       </c>
       <c r="M9">
-        <v>12.98422297934864</v>
+        <v>12.6724113644331</v>
       </c>
       <c r="N9">
-        <v>7.504945734859024</v>
+        <v>5.708100308180822</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.89502819353242</v>
       </c>
       <c r="P9">
-        <v>13.78983075082096</v>
+        <v>7.769650577807101</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.45498808075783</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.5657629952812</v>
+        <v>16.82640495216633</v>
       </c>
       <c r="C10">
-        <v>7.572163414863409</v>
+        <v>8.010168213153364</v>
       </c>
       <c r="D10">
-        <v>5.055017862361701</v>
+        <v>5.299675476416411</v>
       </c>
       <c r="E10">
-        <v>7.579193751128161</v>
+        <v>7.49919505740426</v>
       </c>
       <c r="F10">
-        <v>29.24849628152067</v>
+        <v>27.58783891449764</v>
       </c>
       <c r="G10">
-        <v>37.18397835382054</v>
+        <v>34.99059544022794</v>
       </c>
       <c r="H10">
-        <v>2.379734001420239</v>
+        <v>2.280335705058377</v>
       </c>
       <c r="J10">
-        <v>12.17991470245774</v>
+        <v>11.47508380876049</v>
       </c>
       <c r="K10">
-        <v>19.48261867735967</v>
+        <v>18.06959591300892</v>
       </c>
       <c r="L10">
-        <v>5.868540944095419</v>
+        <v>13.98799666667037</v>
       </c>
       <c r="M10">
-        <v>14.10778660337979</v>
+        <v>12.84645971565503</v>
       </c>
       <c r="N10">
-        <v>7.786422495725014</v>
+        <v>5.762732427555061</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.96058128021769</v>
       </c>
       <c r="P10">
-        <v>13.4875414034089</v>
+        <v>8.049060413233242</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.15987721077938</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.7097900395543</v>
+        <v>16.95282777049262</v>
       </c>
       <c r="C11">
-        <v>7.94278118721363</v>
+        <v>8.288538439899398</v>
       </c>
       <c r="D11">
-        <v>4.911262370411444</v>
+        <v>5.194898864454896</v>
       </c>
       <c r="E11">
-        <v>7.045539825647941</v>
+        <v>6.98663667802056</v>
       </c>
       <c r="F11">
-        <v>28.240792613341</v>
+        <v>26.45071573014668</v>
       </c>
       <c r="G11">
-        <v>35.76366791721887</v>
+        <v>34.4374161543772</v>
       </c>
       <c r="H11">
-        <v>3.17736412276994</v>
+        <v>3.115789895516932</v>
       </c>
       <c r="J11">
-        <v>11.85273173415842</v>
+        <v>10.7512522549571</v>
       </c>
       <c r="K11">
-        <v>18.80523841141467</v>
+        <v>17.35793824257704</v>
       </c>
       <c r="L11">
-        <v>5.722640695452613</v>
+        <v>13.38493072004839</v>
       </c>
       <c r="M11">
-        <v>14.37026318788478</v>
+        <v>12.40103002609889</v>
       </c>
       <c r="N11">
-        <v>7.266241918637768</v>
+        <v>5.6365555035225</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.1634234273072</v>
       </c>
       <c r="P11">
-        <v>13.24881197371043</v>
+        <v>7.507295201142982</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.96476565682159</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.56268624649383</v>
+        <v>16.82097708524986</v>
       </c>
       <c r="C12">
-        <v>8.144311909159487</v>
+        <v>8.419965907637545</v>
       </c>
       <c r="D12">
-        <v>4.733960635995496</v>
+        <v>5.028038803681315</v>
       </c>
       <c r="E12">
-        <v>6.625813480145644</v>
+        <v>6.579336253503211</v>
       </c>
       <c r="F12">
-        <v>27.23368780014706</v>
+        <v>25.44197914585841</v>
       </c>
       <c r="G12">
-        <v>34.3322563046511</v>
+        <v>33.48246521732319</v>
       </c>
       <c r="H12">
-        <v>4.439746963128901</v>
+        <v>4.396934376318881</v>
       </c>
       <c r="J12">
-        <v>11.56223662300133</v>
+        <v>10.33678597414847</v>
       </c>
       <c r="K12">
-        <v>18.21538208699461</v>
+        <v>16.80576518547054</v>
       </c>
       <c r="L12">
-        <v>5.641773942358798</v>
+        <v>12.96130764727612</v>
       </c>
       <c r="M12">
-        <v>14.36220117975694</v>
+        <v>11.99918579685301</v>
       </c>
       <c r="N12">
-        <v>6.783520614899921</v>
+        <v>5.575236734794759</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.13393265041607</v>
       </c>
       <c r="P12">
-        <v>13.12749997186381</v>
+        <v>7.008385276342412</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.88560856504838</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.17787486429831</v>
+        <v>16.48690497819355</v>
       </c>
       <c r="C13">
-        <v>8.233338747236866</v>
+        <v>8.469071482657046</v>
       </c>
       <c r="D13">
-        <v>4.516478256163314</v>
+        <v>4.790573171045892</v>
       </c>
       <c r="E13">
-        <v>6.278617764261604</v>
+        <v>6.239782640691029</v>
       </c>
       <c r="F13">
-        <v>26.15549284569901</v>
+        <v>24.49565528492115</v>
       </c>
       <c r="G13">
-        <v>32.78544999935926</v>
+        <v>31.98257912679078</v>
       </c>
       <c r="H13">
-        <v>5.80852221649888</v>
+        <v>5.771729213126291</v>
       </c>
       <c r="J13">
-        <v>11.28173548389555</v>
+        <v>10.17790452353773</v>
       </c>
       <c r="K13">
-        <v>17.65712305146644</v>
+        <v>16.35839017282457</v>
       </c>
       <c r="L13">
-        <v>5.60629802915414</v>
+        <v>12.64886023126944</v>
       </c>
       <c r="M13">
-        <v>14.14541087648046</v>
+        <v>11.62559341921631</v>
       </c>
       <c r="N13">
-        <v>6.299053319934561</v>
+        <v>5.559508914398331</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.93534994305236</v>
       </c>
       <c r="P13">
-        <v>13.08781518424045</v>
+        <v>6.512349534940499</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.88341054906659</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.79538102327885</v>
+        <v>16.15619357318926</v>
       </c>
       <c r="C14">
-        <v>8.246148437863063</v>
+        <v>8.466676236943254</v>
       </c>
       <c r="D14">
-        <v>4.344399450997875</v>
+        <v>4.591659954761718</v>
       </c>
       <c r="E14">
-        <v>6.088662953384524</v>
+        <v>6.055765380729888</v>
       </c>
       <c r="F14">
-        <v>25.36839820366119</v>
+        <v>23.85680688572136</v>
       </c>
       <c r="G14">
-        <v>31.64781308174251</v>
+        <v>30.6975038257173</v>
       </c>
       <c r="H14">
-        <v>6.796246549768332</v>
+        <v>6.76033540211608</v>
       </c>
       <c r="J14">
-        <v>11.09124822684122</v>
+        <v>10.16510905932119</v>
       </c>
       <c r="K14">
-        <v>17.28470686480063</v>
+        <v>16.09174730920368</v>
       </c>
       <c r="L14">
-        <v>5.60942212957645</v>
+        <v>12.47501585687511</v>
       </c>
       <c r="M14">
-        <v>13.89625993569084</v>
+        <v>11.38021119040942</v>
       </c>
       <c r="N14">
-        <v>5.964814862723887</v>
+        <v>5.57572904058442</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.71661395351934</v>
       </c>
       <c r="P14">
-        <v>13.09844883712808</v>
+        <v>6.171954953088308</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.9145037324406</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.65050634570579</v>
+        <v>16.03088540818319</v>
       </c>
       <c r="C15">
-        <v>8.225070885079653</v>
+        <v>8.447259934955282</v>
       </c>
       <c r="D15">
-        <v>4.293797123118117</v>
+        <v>4.529193887376659</v>
       </c>
       <c r="E15">
-        <v>6.047619435286345</v>
+        <v>6.016854162122151</v>
       </c>
       <c r="F15">
-        <v>25.16456525415354</v>
+        <v>23.71246587637025</v>
       </c>
       <c r="G15">
-        <v>31.3503668401795</v>
+        <v>30.29006372849867</v>
       </c>
       <c r="H15">
-        <v>7.029536157695383</v>
+        <v>6.992743234498619</v>
       </c>
       <c r="J15">
-        <v>11.04804321080018</v>
+        <v>10.20406661460375</v>
       </c>
       <c r="K15">
-        <v>17.20229063320494</v>
+        <v>16.0466573322104</v>
       </c>
       <c r="L15">
-        <v>5.612022796454847</v>
+        <v>12.45121459385659</v>
       </c>
       <c r="M15">
-        <v>13.78988082265637</v>
+        <v>11.32769185016352</v>
       </c>
       <c r="N15">
-        <v>5.881238737929956</v>
+        <v>5.581443012221656</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.62533790711911</v>
       </c>
       <c r="P15">
-        <v>13.11589737812847</v>
+        <v>6.087860031414841</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.93460216365908</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.17184945957859</v>
+        <v>15.61025958640206</v>
       </c>
       <c r="C16">
-        <v>7.985709625059512</v>
+        <v>8.248430944116249</v>
       </c>
       <c r="D16">
-        <v>4.218573014882981</v>
+        <v>4.410079033808864</v>
       </c>
       <c r="E16">
-        <v>6.018711152576101</v>
+        <v>5.992488161215774</v>
       </c>
       <c r="F16">
-        <v>25.08233477683358</v>
+        <v>23.82578159837996</v>
       </c>
       <c r="G16">
-        <v>31.2105479289342</v>
+        <v>29.55405115251405</v>
       </c>
       <c r="H16">
-        <v>6.86136123278281</v>
+        <v>6.813344422169219</v>
       </c>
       <c r="J16">
-        <v>11.08496386386062</v>
+        <v>10.57860097199923</v>
       </c>
       <c r="K16">
-        <v>17.28834674315141</v>
+        <v>16.23066787861951</v>
       </c>
       <c r="L16">
-        <v>5.587714266857217</v>
+        <v>12.6274777681808</v>
       </c>
       <c r="M16">
-        <v>13.35758883843769</v>
+        <v>11.3932516999806</v>
       </c>
       <c r="N16">
-        <v>5.847106427095993</v>
+        <v>5.557550733601718</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.25795266879943</v>
       </c>
       <c r="P16">
-        <v>13.24766408108509</v>
+        <v>6.063042747613674</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.0492874108848</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.01177132896289</v>
+        <v>15.46097831692664</v>
       </c>
       <c r="C17">
-        <v>7.790921548356248</v>
+        <v>8.08143462957687</v>
       </c>
       <c r="D17">
-        <v>4.254649751291423</v>
+        <v>4.43195345893508</v>
       </c>
       <c r="E17">
-        <v>6.087435072014918</v>
+        <v>6.058487098438459</v>
       </c>
       <c r="F17">
-        <v>25.44384175272617</v>
+        <v>24.23893047987297</v>
       </c>
       <c r="G17">
-        <v>31.72020478082979</v>
+        <v>29.77381878435803</v>
       </c>
       <c r="H17">
-        <v>6.183890111513032</v>
+        <v>6.124541527186906</v>
       </c>
       <c r="J17">
-        <v>11.21493850884302</v>
+        <v>10.84293292471867</v>
       </c>
       <c r="K17">
-        <v>17.55162177784475</v>
+        <v>16.50566922561002</v>
       </c>
       <c r="L17">
-        <v>5.562830823181475</v>
+        <v>12.85757754486456</v>
       </c>
       <c r="M17">
-        <v>13.15819404528304</v>
+        <v>11.56323389207637</v>
       </c>
       <c r="N17">
-        <v>5.997098676372441</v>
+        <v>5.526341618643437</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.08459627819787</v>
       </c>
       <c r="P17">
-        <v>13.34329883489803</v>
+        <v>6.22265725921908</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.12522908270628</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.11231854573156</v>
+        <v>15.54049417239443</v>
       </c>
       <c r="C18">
-        <v>7.615666212085046</v>
+        <v>7.941653607837196</v>
       </c>
       <c r="D18">
-        <v>4.39155960231574</v>
+        <v>4.569901073762743</v>
       </c>
       <c r="E18">
-        <v>6.305265228317339</v>
+        <v>6.265406630190469</v>
       </c>
       <c r="F18">
-        <v>26.2238775552839</v>
+        <v>24.98682200423844</v>
       </c>
       <c r="G18">
-        <v>32.83765620289073</v>
+        <v>30.68394279228794</v>
       </c>
       <c r="H18">
-        <v>5.035017337655193</v>
+        <v>4.960238514735896</v>
       </c>
       <c r="J18">
-        <v>11.43863911383716</v>
+        <v>11.10593516385904</v>
       </c>
       <c r="K18">
-        <v>17.99886998182168</v>
+        <v>16.90993566419786</v>
       </c>
       <c r="L18">
-        <v>5.563830276647161</v>
+        <v>13.17898648656702</v>
       </c>
       <c r="M18">
-        <v>13.1433991560978</v>
+        <v>11.8499815130642</v>
       </c>
       <c r="N18">
-        <v>6.341035888338217</v>
+        <v>5.514061864762229</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.07515211322063</v>
       </c>
       <c r="P18">
-        <v>13.42714192412267</v>
+        <v>6.578155580814165</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.18357364968879</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.41070098202479</v>
+        <v>15.79777868964562</v>
       </c>
       <c r="C19">
-        <v>7.47242358053523</v>
+        <v>7.843422723179404</v>
       </c>
       <c r="D19">
-        <v>4.598657256598611</v>
+        <v>4.786761594289557</v>
       </c>
       <c r="E19">
-        <v>6.701126687007769</v>
+        <v>6.644980052746368</v>
       </c>
       <c r="F19">
-        <v>27.28226763705762</v>
+        <v>25.96108019662472</v>
       </c>
       <c r="G19">
-        <v>34.35629250787585</v>
+        <v>32.02036990923629</v>
       </c>
       <c r="H19">
-        <v>3.730039103066983</v>
+        <v>3.633493915046764</v>
       </c>
       <c r="J19">
-        <v>11.7225553729251</v>
+        <v>11.37771162911093</v>
       </c>
       <c r="K19">
-        <v>18.56868426643083</v>
+        <v>17.40155467581096</v>
       </c>
       <c r="L19">
-        <v>5.627930917466569</v>
+        <v>13.56052039062497</v>
       </c>
       <c r="M19">
-        <v>13.27875590471438</v>
+        <v>12.21760943637268</v>
       </c>
       <c r="N19">
-        <v>6.836983017307404</v>
+        <v>5.559262114051754</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.20323980646624</v>
       </c>
       <c r="P19">
-        <v>13.50690031040181</v>
+        <v>7.086537030093999</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.23244154417563</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.23512051731775</v>
+        <v>16.52973285837036</v>
       </c>
       <c r="C20">
-        <v>7.430508473729127</v>
+        <v>7.874465991523628</v>
       </c>
       <c r="D20">
-        <v>4.986638379843538</v>
+        <v>5.207913621376868</v>
       </c>
       <c r="E20">
-        <v>7.521095655635356</v>
+        <v>7.439800259502636</v>
       </c>
       <c r="F20">
-        <v>29.06788139521218</v>
+        <v>27.52160010547172</v>
       </c>
       <c r="G20">
-        <v>36.9180491129621</v>
+        <v>34.46972780292963</v>
       </c>
       <c r="H20">
-        <v>2.475869329296283</v>
+        <v>2.363468163292996</v>
       </c>
       <c r="J20">
-        <v>12.16508510181944</v>
+        <v>11.65676936831662</v>
       </c>
       <c r="K20">
-        <v>19.45975664187986</v>
+        <v>18.11489470700556</v>
       </c>
       <c r="L20">
-        <v>5.85065126136911</v>
+        <v>14.06877981362313</v>
       </c>
       <c r="M20">
-        <v>13.81998924648226</v>
+        <v>12.81595946068568</v>
       </c>
       <c r="N20">
-        <v>7.710185278898889</v>
+        <v>5.748403372096566</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.7052685400767</v>
       </c>
       <c r="P20">
-        <v>13.56567678636221</v>
+        <v>7.975549747298931</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.24054940046146</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.25289870867736</v>
+        <v>17.41278830446123</v>
       </c>
       <c r="C21">
-        <v>7.81756243568412</v>
+        <v>8.194642306838013</v>
       </c>
       <c r="D21">
-        <v>5.225982372625515</v>
+        <v>5.550688494267699</v>
       </c>
       <c r="E21">
-        <v>7.799621741322015</v>
+        <v>7.732601166539244</v>
       </c>
       <c r="F21">
-        <v>29.81505560334598</v>
+        <v>27.78640332127092</v>
       </c>
       <c r="G21">
-        <v>38.0081830093862</v>
+        <v>36.81239637082655</v>
       </c>
       <c r="H21">
-        <v>2.153223730854296</v>
+        <v>2.0836390425421</v>
       </c>
       <c r="J21">
-        <v>12.26935884073194</v>
+        <v>10.88564002766043</v>
       </c>
       <c r="K21">
-        <v>19.64978852510468</v>
+        <v>18.01439548494564</v>
       </c>
       <c r="L21">
-        <v>5.937436216671437</v>
+        <v>13.85729478010659</v>
       </c>
       <c r="M21">
-        <v>14.68222729789902</v>
+        <v>12.93563876621404</v>
       </c>
       <c r="N21">
-        <v>8.037726405649408</v>
+        <v>5.818839572361697</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.43301844532865</v>
       </c>
       <c r="P21">
-        <v>13.35720685480305</v>
+        <v>8.292374275099274</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.00727991016321</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.86955991455228</v>
+        <v>17.94198309332307</v>
       </c>
       <c r="C22">
-        <v>8.069154519972836</v>
+        <v>8.392827436796333</v>
       </c>
       <c r="D22">
-        <v>5.362896945987633</v>
+        <v>5.758656710271181</v>
       </c>
       <c r="E22">
-        <v>7.938574769820357</v>
+        <v>7.885159433367315</v>
       </c>
       <c r="F22">
-        <v>30.23327609665112</v>
+        <v>27.87492910057609</v>
       </c>
       <c r="G22">
-        <v>38.62177054879138</v>
+        <v>38.36002638852449</v>
       </c>
       <c r="H22">
-        <v>1.959971573954199</v>
+        <v>1.91764621385904</v>
       </c>
       <c r="J22">
-        <v>12.32193566863508</v>
+        <v>10.35912081031784</v>
       </c>
       <c r="K22">
-        <v>19.74063813349223</v>
+        <v>17.90620600390085</v>
       </c>
       <c r="L22">
-        <v>5.98073114628665</v>
+        <v>13.68818470105403</v>
       </c>
       <c r="M22">
-        <v>15.20938039359866</v>
+        <v>12.98911240711491</v>
       </c>
       <c r="N22">
-        <v>8.208488680629202</v>
+        <v>5.853088131040088</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.87074395783296</v>
       </c>
       <c r="P22">
-        <v>13.21545393031652</v>
+        <v>8.454946154864386</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.85170162814527</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.54261600682051</v>
+        <v>17.67019591555482</v>
       </c>
       <c r="C23">
-        <v>7.935703317764915</v>
+        <v>8.305788986596276</v>
       </c>
       <c r="D23">
-        <v>5.29020085310604</v>
+        <v>5.637677915011465</v>
       </c>
       <c r="E23">
-        <v>7.864671415670625</v>
+        <v>7.799862727247721</v>
       </c>
       <c r="F23">
-        <v>30.00939398478709</v>
+        <v>27.86738334174395</v>
       </c>
       <c r="G23">
-        <v>38.29322813077313</v>
+        <v>37.36286807382992</v>
       </c>
       <c r="H23">
-        <v>2.062781719893009</v>
+        <v>2.004666043212712</v>
       </c>
       <c r="J23">
-        <v>12.29339673966499</v>
+        <v>10.72442817275652</v>
       </c>
       <c r="K23">
-        <v>19.69132277648196</v>
+        <v>17.98595145542164</v>
       </c>
       <c r="L23">
-        <v>5.957686870910786</v>
+        <v>13.79400217446324</v>
       </c>
       <c r="M23">
-        <v>14.93011385999216</v>
+        <v>12.97756595756582</v>
       </c>
       <c r="N23">
-        <v>8.117734986474909</v>
+        <v>5.835364336719926</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.65104465884238</v>
       </c>
       <c r="P23">
-        <v>13.29098973545473</v>
+        <v>8.370189451728324</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.93743816002964</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.25658887143831</v>
+        <v>16.54791214162147</v>
       </c>
       <c r="C24">
-        <v>7.41202405116779</v>
+        <v>7.86069712713488</v>
       </c>
       <c r="D24">
-        <v>5.00668081464749</v>
+        <v>5.228337648482541</v>
       </c>
       <c r="E24">
-        <v>7.579143108264426</v>
+        <v>7.496269085256259</v>
       </c>
       <c r="F24">
-        <v>29.17643097522136</v>
+        <v>27.62423606684047</v>
       </c>
       <c r="G24">
-        <v>37.07253482626028</v>
+        <v>34.59766704441605</v>
       </c>
       <c r="H24">
-        <v>2.459627342429181</v>
+        <v>2.347124261768189</v>
       </c>
       <c r="J24">
-        <v>12.19563110347853</v>
+        <v>11.69132237823783</v>
       </c>
       <c r="K24">
-        <v>19.52240384806547</v>
+        <v>18.17078103178062</v>
       </c>
       <c r="L24">
-        <v>5.868998222970688</v>
+        <v>14.11364166329636</v>
       </c>
       <c r="M24">
-        <v>13.82640323735241</v>
+        <v>12.85577512572918</v>
       </c>
       <c r="N24">
-        <v>7.765702838894523</v>
+        <v>5.764629314099392</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.71179818664675</v>
       </c>
       <c r="P24">
-        <v>13.57982233329017</v>
+        <v>8.032410891459039</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.25080965530705</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.76842939609152</v>
+        <v>15.14074244811778</v>
       </c>
       <c r="C25">
-        <v>6.807909946082527</v>
+        <v>7.126641868159354</v>
       </c>
       <c r="D25">
-        <v>4.684141078441997</v>
+        <v>4.883551674669166</v>
       </c>
       <c r="E25">
-        <v>7.259498746352097</v>
+        <v>7.201201683627352</v>
       </c>
       <c r="F25">
-        <v>28.31145125358558</v>
+        <v>26.94954298348963</v>
       </c>
       <c r="G25">
-        <v>35.80851203555543</v>
+        <v>33.51424132532355</v>
       </c>
       <c r="H25">
-        <v>2.90468879550993</v>
+        <v>2.748376682623261</v>
       </c>
       <c r="J25">
-        <v>12.11112394139912</v>
+        <v>11.67998054794329</v>
       </c>
       <c r="K25">
-        <v>19.37631556958546</v>
+        <v>18.15153812877977</v>
       </c>
       <c r="L25">
-        <v>5.77015446284316</v>
+        <v>14.28697658619996</v>
       </c>
       <c r="M25">
-        <v>12.53613153827805</v>
+        <v>12.60237678403803</v>
       </c>
       <c r="N25">
-        <v>7.369279760757111</v>
+        <v>5.679051459993606</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.46649548531654</v>
       </c>
       <c r="P25">
-        <v>13.89791703577317</v>
+        <v>7.634048645896052</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.5616147321229</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
